--- a/biology/Écologie/Côte_Sauvage_(Afrique_du_Sud)/Côte_Sauvage_(Afrique_du_Sud).xlsx
+++ b/biology/Écologie/Côte_Sauvage_(Afrique_du_Sud)/Côte_Sauvage_(Afrique_du_Sud).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sauvage_(Afrique_du_Sud)</t>
+          <t>Côte_Sauvage_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Côte Sauvage en Afrique est une région longeant la côte est d'Afrique du Sud sur 250 km, chevauchant les provinces du Cap-Oriental et du KwaZulu-Natal, et dont la principale caractéristique est une extrême biodiversité soutenue par cinq réserves naturelles. Elle fait partie de l'ensemble écologique Maputaland-Pondoland-Albany.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sauvage_(Afrique_du_Sud)</t>
+          <t>Côte_Sauvage_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-sol riche en minéraux. Roches volcaniques en surface[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-sol riche en minéraux. Roches volcaniques en surface.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sauvage_(Afrique_du_Sud)</t>
+          <t>Côte_Sauvage_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Paysages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dunes de sable rouge à Xolobeni (31° 08′ 20″ S, 30° 04′ 49″ E), anciennes terres de pâturages mises à nu, dévoilent des pointes de flèches, pierres taillées et autres artefacts préhistoriques à chaque tempête ; cette zone a été jusqu'à récemment sous la double menace d'un site minier (veines de titane en surface du sable – 20 ans d'exploitation au maximum) et de la création d'un tronçon d'autoroute visant à raccourcir de 76 km le trajet Durban – East London par la route nationale 2. Les deux projets, excluant les développements écotouristiques à long terme, sont fortement combattus par les communautés locales. En juin 2011 le ministère des ressources naturelles a refusé le droit à la compagnie minière intéressée le droit de s'implanter sur la Côte Sauvage[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dunes de sable rouge à Xolobeni (31° 08′ 20″ S, 30° 04′ 49″ E), anciennes terres de pâturages mises à nu, dévoilent des pointes de flèches, pierres taillées et autres artefacts préhistoriques à chaque tempête ; cette zone a été jusqu'à récemment sous la double menace d'un site minier (veines de titane en surface du sable – 20 ans d'exploitation au maximum) et de la création d'un tronçon d'autoroute visant à raccourcir de 76 km le trajet Durban – East London par la route nationale 2. Les deux projets, excluant les développements écotouristiques à long terme, sont fortement combattus par les communautés locales. En juin 2011 le ministère des ressources naturelles a refusé le droit à la compagnie minière intéressée le droit de s'implanter sur la Côte Sauvage.
 12 cascades seulement dans le monde se déversent directement dans l'océan ; 3 d'entre elles sont sur la Côte Sauvage, dont 2 dans la réserve de Mkambati.
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4te_Sauvage_(Afrique_du_Sud)</t>
+          <t>Côte_Sauvage_(Afrique_du_Sud)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +590,18 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre son propre couvert végétal originel, cette région réunit de nombreux végétaux de la région tropicale du KwaZulu-Natal située immédiatement au nord, et du très riche royaume floral du Cap. Ainsi seulement 180 000 hectares contiennent plus de 2 300 espèces de plantes. La seule réserve de Mtamvuna, de 3 250 ha, contient plus de 1 400 espèces végétales dont certaines si rares qu'elles n'ont pas de nom local connu comme l'arbre à thé du Pondo (Lydenburgia Abbotti, l'arbre endémique le plus rare d'Afrique du Sud avec seulement 200 à 300 spécimens dénombrés)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre son propre couvert végétal originel, cette région réunit de nombreux végétaux de la région tropicale du KwaZulu-Natal située immédiatement au nord, et du très riche royaume floral du Cap. Ainsi seulement 180 000 hectares contiennent plus de 2 300 espèces de plantes. La seule réserve de Mtamvuna, de 3 250 ha, contient plus de 1 400 espèces végétales dont certaines si rares qu'elles n'ont pas de nom local connu comme l'arbre à thé du Pondo (Lydenburgia Abbotti, l'arbre endémique le plus rare d'Afrique du Sud avec seulement 200 à 300 spécimens dénombrés).
 Réserves naturelles (du sud au nord) :
-réserve naturelle de Silaka (Cap-Oriental)[2] ;
-réserve naturelle de Pondoland[3] ;
-réserve naturelle de Mkambati[4], 8 000 ha, ouverte à la fin des années 1990 ;
-réserve naturelle de Mtamvuna[5] (KwaZulu-Natal), 3 250 ha, ouverte à la fin des années 1990 ;
-réserve naturelle de Mpenjati[6] (KwaZulu-Natal) ;
-zone marine protégée de Trafalgar[7] (KwaZulu-Natal).
+réserve naturelle de Silaka (Cap-Oriental) ;
+réserve naturelle de Pondoland ;
+réserve naturelle de Mkambati, 8 000 ha, ouverte à la fin des années 1990 ;
+réserve naturelle de Mtamvuna (KwaZulu-Natal), 3 250 ha, ouverte à la fin des années 1990 ;
+réserve naturelle de Mpenjati (KwaZulu-Natal) ;
+zone marine protégée de Trafalgar (KwaZulu-Natal).
 Une réserve nationale incluant l'ensemble de la Côte Sauvage est envisagée.
 </t>
         </is>
